--- a/Data/ErrorData_ARGroup.xlsx
+++ b/Data/ErrorData_ARGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\Indico-LearningAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\github-ERPI\Indico-LearningAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896317C5-18F1-41A4-B03F-8E9E2D507383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA65A9-182A-418E-A0A4-F43DFDEE3EF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{9E304B4F-B274-4198-9D17-869967AA7A1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Participant ID</t>
   </si>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>AR18</t>
+  </si>
+  <si>
+    <t>AR19</t>
+  </si>
+  <si>
+    <t>AR20</t>
+  </si>
+  <si>
+    <t>AR21</t>
+  </si>
+  <si>
+    <t>AR22</t>
+  </si>
+  <si>
+    <t>AR23</t>
+  </si>
+  <si>
+    <t>AR24</t>
+  </si>
+  <si>
+    <t>AR25</t>
+  </si>
+  <si>
+    <t>AR26</t>
+  </si>
+  <si>
+    <t>AR27</t>
+  </si>
+  <si>
+    <t>AR28</t>
+  </si>
+  <si>
+    <t>AR29</t>
+  </si>
+  <si>
+    <t>AR30</t>
   </si>
 </sst>
 </file>
@@ -442,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EC80CE-8FF3-4038-8E08-9B509228B734}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,6 +752,174 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
